--- a/Proyecto/Planificación del proyecto.xlsx
+++ b/Proyecto/Planificación del proyecto.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="135" windowWidth="11715" windowHeight="9525"/>
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="52">
   <si>
     <t>Grupo de trabajo:</t>
   </si>
@@ -58,13 +58,127 @@
   </si>
   <si>
     <t>Entregables</t>
+  </si>
+  <si>
+    <t>Adaptar proyecto por la perdida de un miembro del equipo</t>
+  </si>
+  <si>
+    <t>Carlos y Alexander</t>
+  </si>
+  <si>
+    <t>Finalizar práctica de MQTT que después reutilizaremos para nuestro proyecto</t>
+  </si>
+  <si>
+    <t>Petición materiales</t>
+  </si>
+  <si>
+    <t>Planificación</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Analizar opciones para contruir o comprar macetero/jardinera</t>
+  </si>
+  <si>
+    <t>Petición de materiales</t>
+  </si>
+  <si>
+    <t>Documento de especificaciones</t>
+  </si>
+  <si>
+    <t>Adquirir los materiales necesrios</t>
+  </si>
+  <si>
+    <t>Afrontar posibles ampliaciones o mejoras</t>
+  </si>
+  <si>
+    <t>Analizar como integrar el sistema con previsión meteorológica</t>
+  </si>
+  <si>
+    <t>Ver con profesor materiales de los que disponemos en el aula</t>
+  </si>
+  <si>
+    <t>Diseño Cuadro de Mandos Node-Red</t>
+  </si>
+  <si>
+    <t>Cerrar código para medición de sensores</t>
+  </si>
+  <si>
+    <t>Desarrollo Cuadro de Mandos Node-Red</t>
+  </si>
+  <si>
+    <t>Probar desarrollo Cuadro de Mandos Node-Red</t>
+  </si>
+  <si>
+    <t>Construir Jardinera</t>
+  </si>
+  <si>
+    <t>Cableado Jardinera</t>
+  </si>
+  <si>
+    <t>Integrar componentes en Jardinera</t>
+  </si>
+  <si>
+    <t>Definir tabla de decisión para actuadores</t>
+  </si>
+  <si>
+    <t>Desarrollo activación/desactivación bomba</t>
+  </si>
+  <si>
+    <t>Probar desarrollo de control de bomba</t>
+  </si>
+  <si>
+    <t>Asumir tareas anteriores que hayan sufrido retrasos</t>
+  </si>
+  <si>
+    <t>Revisar con profesor nuevo alcance del proyecto</t>
+  </si>
+  <si>
+    <t>Adaptar última práctica con necesidades del proyecto</t>
+  </si>
+  <si>
+    <t>Integrar bomba de riego con ESP</t>
+  </si>
+  <si>
+    <t>Disponer de jardinera</t>
+  </si>
+  <si>
+    <t>Implementar lógico decisión</t>
+  </si>
+  <si>
+    <t>Probar sistema completo</t>
+  </si>
+  <si>
+    <t>json node red</t>
+  </si>
+  <si>
+    <t>codigo programación ESP</t>
+  </si>
+  <si>
+    <t>Prototipo cerrado</t>
+  </si>
+  <si>
+    <t>Documentación del proyecto</t>
+  </si>
+  <si>
+    <t>Montar y probar escenario final</t>
+  </si>
+  <si>
+    <t>Carlos y Alexnader</t>
+  </si>
+  <si>
+    <t>Jardinera lista</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,7 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -272,6 +386,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -281,8 +397,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,7 +488,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -408,7 +522,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -584,57 +697,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:XFD87"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="67.28515625" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
     <col min="4" max="4" width="57.28515625" style="7" customWidth="1"/>
     <col min="5" max="5" width="36.85546875" customWidth="1"/>
     <col min="6" max="6" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="25.5">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <f>SUM(D:D)</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <f>SUM(G:G)</f>
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="18" thickBot="1">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -644,17 +755,17 @@
       </c>
       <c r="D7" s="8">
         <f>SUM(C9:C15)</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="8">
         <f>SUM(F9:F15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" thickTop="1">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -674,23 +785,100 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75">
+      <c r="A18" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" thickTop="1" thickBot="1">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -700,17 +888,17 @@
       </c>
       <c r="D23" s="8">
         <f t="shared" ref="D23" si="0">SUM(C25:C31)</f>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" ref="G23" si="1">SUM(F25:F31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" thickTop="1">
       <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
@@ -730,23 +918,135 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>1.5</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>1.5</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75">
+      <c r="A34" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-    </row>
-    <row r="39" spans="1:7" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:7" ht="18.75" thickTop="1" thickBot="1">
       <c r="A39" s="2" t="s">
         <v>3</v>
       </c>
@@ -756,17 +1056,17 @@
       </c>
       <c r="D39" s="8">
         <f t="shared" ref="D39" si="2">SUM(C41:C47)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="8">
         <f t="shared" ref="G39" si="3">SUM(F41:F47)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="16.5" thickTop="1">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
@@ -786,23 +1086,109 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75">
+      <c r="A50" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-    </row>
-    <row r="55" spans="1:7" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="14"/>
+      <c r="C50" s="15"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+    </row>
+    <row r="55" spans="1:7" ht="18.75" thickTop="1" thickBot="1">
       <c r="A55" s="2" t="s">
         <v>4</v>
       </c>
@@ -812,17 +1198,17 @@
       </c>
       <c r="D55" s="8">
         <f t="shared" ref="D55" si="4">SUM(C57:C63)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G55" s="8">
         <f t="shared" ref="G55" si="5">SUM(F57:F63)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="16.5" thickTop="1">
       <c r="A56" s="3" t="s">
         <v>8</v>
       </c>
@@ -842,23 +1228,64 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" t="s">
+        <v>50</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75">
+      <c r="A66" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="13"/>
-    </row>
-    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-    </row>
-    <row r="71" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="15"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A18:C18"/>
@@ -872,24 +1299,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
